--- a/Documentation/journal de travail.xlsx
+++ b/Documentation/journal de travail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy.COMELLI\Desktop\TPI\Projet\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy.COMELLI\Desktop\TPI\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Développement de la boîte de sélection</t>
+  </si>
+  <si>
+    <t>Suite du développement de la boîte de sélection</t>
   </si>
 </sst>
 </file>
@@ -276,12 +279,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -290,12 +299,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:E23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,24 +614,24 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="11">
         <v>43228.05</v>
       </c>
       <c r="B2" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="12">
-        <v>5</v>
+      <c r="E2" s="14">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>5</v>
@@ -636,10 +639,10 @@
       <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="5">
         <v>0.5</v>
       </c>
@@ -649,10 +652,10 @@
       <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="5">
         <v>0.5</v>
       </c>
@@ -660,21 +663,21 @@
         <v>9</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="13"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="7">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="14"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>43229</v>
       </c>
       <c r="B7" s="3">
@@ -684,12 +687,12 @@
         <v>11</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="12">
+      <c r="E7" s="14">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="5">
         <v>2</v>
       </c>
@@ -697,10 +700,10 @@
         <v>12</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="13"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="5">
         <v>0.75</v>
       </c>
@@ -710,10 +713,10 @@
       <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="5">
         <v>2</v>
       </c>
@@ -721,10 +724,10 @@
         <v>15</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="13"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="5">
         <v>1.1499999999999999</v>
       </c>
@@ -732,10 +735,10 @@
         <v>16</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="13"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="7">
         <v>0.5</v>
       </c>
@@ -743,10 +746,10 @@
         <v>17</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="14"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="3">
@@ -756,34 +759,34 @@
         <v>18</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="12">
-        <v>5</v>
+      <c r="E13" s="14">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="5">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="13"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="7">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="14"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="11">
         <v>43236</v>
       </c>
       <c r="B16" s="3">
@@ -793,12 +796,12 @@
         <v>21</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="12">
+      <c r="E16" s="14">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="5">
         <v>3</v>
       </c>
@@ -808,10 +811,10 @@
       <c r="D17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="13"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="5">
         <v>2.5</v>
       </c>
@@ -819,10 +822,10 @@
         <v>25</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="13"/>
+      <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="7">
         <v>3</v>
       </c>
@@ -832,10 +835,10 @@
       <c r="D19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="14"/>
+      <c r="E19" s="16"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="11">
         <v>43237</v>
       </c>
       <c r="B20" s="3">
@@ -847,12 +850,12 @@
       <c r="D20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="14">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="7">
         <v>7</v>
       </c>
@@ -862,10 +865,10 @@
       <c r="D21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="14"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="11">
         <v>43238</v>
       </c>
       <c r="B22" s="3">
@@ -877,12 +880,12 @@
       <c r="D22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="14">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="7">
         <v>4</v>
       </c>
@@ -890,13 +893,33 @@
         <v>34</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="14"/>
+      <c r="E23" s="16"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+      <c r="A24" s="11">
+        <v>43242</v>
+      </c>
+      <c r="B24" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="14">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
@@ -908,52 +931,52 @@
       <c r="A28" s="9"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
+      <c r="A29" s="10"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
+      <c r="A30" s="10"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
+      <c r="A31" s="10"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
+      <c r="A32" s="10"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
+      <c r="A33" s="10"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
+      <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
+      <c r="A35" s="10"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
+      <c r="A36" s="10"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
+      <c r="A37" s="10"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
+      <c r="A38" s="10"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
+      <c r="A39" s="10"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
+      <c r="A40" s="10"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
+      <c r="A41" s="10"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
+      <c r="A42" s="10"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
+      <c r="A43" s="10"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
+      <c r="A44" s="10"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
@@ -965,19 +988,21 @@
       <c r="A47" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="E22:E23"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="E2:E6"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="E7:E12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="E13:E15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="E22:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentation/journal de travail.xlsx
+++ b/Documentation/journal de travail.xlsx
@@ -276,29 +276,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,10 +580,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E60" sqref="A26:E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +617,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="12">
         <v>43228.05</v>
       </c>
       <c r="B2" s="3">
@@ -624,12 +627,12 @@
         <v>4</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="14">
+      <c r="E2" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="5">
         <v>1</v>
       </c>
@@ -642,7 +645,7 @@
       <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="5">
         <v>0.5</v>
       </c>
@@ -655,7 +658,7 @@
       <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="5">
         <v>0.5</v>
       </c>
@@ -674,10 +677,10 @@
         <v>10</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="16"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="12">
         <v>43229</v>
       </c>
       <c r="B7" s="3">
@@ -687,12 +690,12 @@
         <v>11</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="14">
+      <c r="E7" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="5">
         <v>2</v>
       </c>
@@ -703,7 +706,7 @@
       <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="5">
         <v>0.75</v>
       </c>
@@ -716,7 +719,7 @@
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="5">
         <v>2</v>
       </c>
@@ -727,7 +730,7 @@
       <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="5">
         <v>1.1499999999999999</v>
       </c>
@@ -746,10 +749,10 @@
         <v>17</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="16"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="3">
@@ -759,12 +762,12 @@
         <v>18</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="14">
+      <c r="E13" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="5">
         <v>2</v>
       </c>
@@ -775,7 +778,7 @@
       <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="7">
         <v>2</v>
       </c>
@@ -783,10 +786,10 @@
         <v>20</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="16"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="12">
         <v>43236</v>
       </c>
       <c r="B16" s="3">
@@ -796,12 +799,12 @@
         <v>21</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="14">
+      <c r="E16" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="5">
         <v>3</v>
       </c>
@@ -814,7 +817,7 @@
       <c r="E17" s="15"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="5">
         <v>2.5</v>
       </c>
@@ -825,7 +828,7 @@
       <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="7">
         <v>3</v>
       </c>
@@ -835,10 +838,10 @@
       <c r="D19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="16"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="A20" s="12">
         <v>43237</v>
       </c>
       <c r="B20" s="3">
@@ -850,7 +853,7 @@
       <c r="D20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="10">
         <v>9</v>
       </c>
     </row>
@@ -865,10 +868,10 @@
       <c r="D21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="16"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="A22" s="12">
         <v>43238</v>
       </c>
       <c r="B22" s="3">
@@ -880,7 +883,7 @@
       <c r="D22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="10">
         <v>7</v>
       </c>
     </row>
@@ -893,10 +896,10 @@
         <v>34</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="16"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="A24" s="12">
         <v>43242</v>
       </c>
       <c r="B24" s="3">
@@ -906,89 +909,274 @@
         <v>35</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="14">
+      <c r="E24" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="7">
+      <c r="A25" s="14"/>
+      <c r="B25" s="5">
         <v>1.5</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="16"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="E7:E12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="E13:E15"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A16:A19"/>
@@ -997,14 +1185,8 @@
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="E7:E12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="E13:E15"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/journal de travail.xlsx
+++ b/Documentation/journal de travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -132,6 +132,42 @@
   </si>
   <si>
     <t>Suite du développement de la boîte de sélection</t>
+  </si>
+  <si>
+    <t>Fin du développement de la selectionbox</t>
+  </si>
+  <si>
+    <t>avec le recul, le développement aurait été grandement simplifié si le "retournement" de la boîte de sélection droit n'était pas autorisé, ou contourné. Actuellement, quand on sélectionne le bord droit de la boîte, et qu'on le glisse plus à gauche que le bord gauche, la boîte se retourne, et gérer des coordonnées inférieures, des auteurs et largeurs négatives, est un cauchemar.</t>
+  </si>
+  <si>
+    <t>Amélioration du système d'enregistrement d'image</t>
+  </si>
+  <si>
+    <t>Actuellement, l'enregistrement de la zone sélectionnée se fait par screenshot. C'est un workaround, car tkinter ne permet pas d'accéder aux pixels d'une image affichée sur un canvas. Après discussion avec M. Ithurbide, il a été décidé de créer une matrice numpy contenant l'image, en parallèle de celle affichée à l'écran. L'avantage est de pouvoir faire du processing sur la matrice numpy, et ensuite de la convertir en image à afficher à l'écran</t>
+  </si>
+  <si>
+    <t>Finalisation du système d'enregistrement d'image</t>
+  </si>
+  <si>
+    <t>Le système d'enregistrement a été largement compliqué par le "retournement de boîte", mais est désormais fonctionnel</t>
+  </si>
+  <si>
+    <t>Développement du système de recadrage</t>
+  </si>
+  <si>
+    <t>Jeremy Comelli</t>
+  </si>
+  <si>
+    <t>Journal de travail</t>
+  </si>
+  <si>
+    <t>Finalisation du système de recadrage</t>
+  </si>
+  <si>
+    <t>Mise à jour de la documentation</t>
+  </si>
+  <si>
+    <t>Journal de travail, journal de bord</t>
   </si>
 </sst>
 </file>
@@ -141,9 +177,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddd\ dd/mm/yy"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -158,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -246,11 +290,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -279,26 +428,56 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,10 +762,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E60" sqref="A26:E60"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,392 +778,440 @@
     <col min="6" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E4" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>43228.05</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="10">
+      <c r="D5" s="4"/>
+      <c r="E5" s="13">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="5">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="5">
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="5">
         <v>0.5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="5">
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="5">
         <v>0.5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="7">
+      <c r="D8" s="6"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="7">
         <v>2</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="D9" s="8"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>43229</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B10" s="3">
         <v>1.5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="10">
+      <c r="D10" s="4"/>
+      <c r="E10" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="5">
         <v>2</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="5">
+      <c r="D11" s="6"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="5">
         <v>0.75</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="5">
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="5">
         <v>2</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="5">
+      <c r="D13" s="6"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="5">
         <v>1.1499999999999999</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="5">
-        <v>2</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="15"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="3">
         <v>2</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="5">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="7">
+        <v>2</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="D18" s="8"/>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
         <v>43236</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B19" s="3">
         <v>0.5</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="10">
+      <c r="D19" s="4"/>
+      <c r="E19" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="5">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="5">
         <v>3</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="5">
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="5">
         <v>2.5</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="7">
+      <c r="D21" s="6"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="7">
         <v>3</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
         <v>43237</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B23" s="3">
         <v>2</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E23" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="7">
+    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="7">
         <v>7</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
         <v>43238</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B25" s="3">
         <v>3</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E25" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="7">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="7">
         <v>4</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="D26" s="8"/>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
         <v>43242</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B27" s="3">
         <v>4.5</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="10">
+      <c r="D27" s="4"/>
+      <c r="E27" s="13">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="5">
         <v>1.5</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>43243</v>
+      </c>
+      <c r="B29" s="3">
+        <v>5</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="7">
+        <v>4</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>43244</v>
+      </c>
+      <c r="B31" s="3">
+        <v>5</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="13">
+        <v>9</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="7">
+        <v>4</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="15"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
+      <c r="A33" s="9">
+        <v>43245</v>
+      </c>
+      <c r="B33" s="5">
+        <v>3</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="E33" s="6">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="B34" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,21 +1306,21 @@
       <c r="E47" s="6"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
+      <c r="A48" s="9"/>
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
+      <c r="A49" s="9"/>
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
+      <c r="A50" s="9"/>
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -1169,22 +1396,49 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
     </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="E7:E12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="E22:E23"/>
+  <mergeCells count="20">
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E3"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="E16:E18"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>

--- a/Documentation/journal de travail.xlsx
+++ b/Documentation/journal de travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -168,6 +168,15 @@
   </si>
   <si>
     <t>Journal de travail, journal de bord</t>
+  </si>
+  <si>
+    <t>Formation sur Tensorflow</t>
+  </si>
+  <si>
+    <t>Tests avec tensorflow</t>
+  </si>
+  <si>
+    <t>Je n'ai pas encore réussi à faire marcher la librairie en local, entre l'environnement anaconda, les guides qui ne sont plus à jour, et probablement PyCharm qui vient mettre son grain de sel</t>
   </si>
 </sst>
 </file>
@@ -399,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -428,6 +437,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -446,38 +467,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -764,8 +785,8 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,50 +799,50 @@
     <col min="6" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="14"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="14">
         <v>43228.05</v>
       </c>
       <c r="B5" s="3">
@@ -831,12 +852,12 @@
         <v>4</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="13">
+      <c r="E5" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -846,10 +867,10 @@
       <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="5">
         <v>0.5</v>
       </c>
@@ -859,10 +880,10 @@
       <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="5">
         <v>0.5</v>
       </c>
@@ -870,10 +891,10 @@
         <v>9</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="14"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="7">
         <v>2</v>
       </c>
@@ -881,10 +902,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="15"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="14">
         <v>43229</v>
       </c>
       <c r="B10" s="3">
@@ -894,12 +915,12 @@
         <v>11</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="13">
+      <c r="E10" s="17">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="5">
         <v>2</v>
       </c>
@@ -907,10 +928,10 @@
         <v>12</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="14"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="5">
         <v>0.75</v>
       </c>
@@ -920,10 +941,10 @@
       <c r="D12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="14"/>
+      <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="5">
         <v>2</v>
       </c>
@@ -931,10 +952,10 @@
         <v>15</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="14"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="5">
         <v>1.1499999999999999</v>
       </c>
@@ -942,10 +963,10 @@
         <v>16</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="14"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="7">
         <v>0.5</v>
       </c>
@@ -953,10 +974,10 @@
         <v>17</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="15"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="3">
@@ -966,12 +987,12 @@
         <v>18</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="13">
+      <c r="E16" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="5">
         <v>2</v>
       </c>
@@ -979,10 +1000,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="14"/>
+      <c r="E17" s="18"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="7">
         <v>2</v>
       </c>
@@ -990,10 +1011,10 @@
         <v>20</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="15"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="14">
         <v>43236</v>
       </c>
       <c r="B19" s="3">
@@ -1003,12 +1024,12 @@
         <v>21</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="13">
+      <c r="E19" s="17">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="5">
         <v>3</v>
       </c>
@@ -1018,10 +1039,10 @@
       <c r="D20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="14"/>
+      <c r="E20" s="18"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="5">
         <v>2.5</v>
       </c>
@@ -1029,10 +1050,10 @@
         <v>25</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="14"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="7">
         <v>3</v>
       </c>
@@ -1042,10 +1063,10 @@
       <c r="D22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="15"/>
+      <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="A23" s="14">
         <v>43237</v>
       </c>
       <c r="B23" s="3">
@@ -1057,12 +1078,12 @@
       <c r="D23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="17">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="7">
         <v>7</v>
       </c>
@@ -1072,10 +1093,10 @@
       <c r="D24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="15"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+      <c r="A25" s="14">
         <v>43238</v>
       </c>
       <c r="B25" s="3">
@@ -1087,12 +1108,12 @@
       <c r="D25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="17">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="7">
         <v>4</v>
       </c>
@@ -1100,10 +1121,10 @@
         <v>34</v>
       </c>
       <c r="D26" s="8"/>
-      <c r="E26" s="15"/>
+      <c r="E26" s="19"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
+      <c r="A27" s="14">
         <v>43242</v>
       </c>
       <c r="B27" s="3">
@@ -1113,12 +1134,12 @@
         <v>35</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="13">
+      <c r="E27" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="5">
         <v>1.5</v>
       </c>
@@ -1126,10 +1147,10 @@
         <v>16</v>
       </c>
       <c r="D28" s="6"/>
-      <c r="E28" s="14"/>
+      <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+      <c r="A29" s="14">
         <v>43243</v>
       </c>
       <c r="B29" s="3">
@@ -1141,12 +1162,12 @@
       <c r="D29" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="17">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="7">
         <v>4</v>
       </c>
@@ -1156,10 +1177,10 @@
       <c r="D30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="15"/>
+      <c r="E30" s="19"/>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+      <c r="A31" s="14">
         <v>43244</v>
       </c>
       <c r="B31" s="3">
@@ -1171,12 +1192,12 @@
       <c r="D31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="17">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="7">
         <v>4</v>
       </c>
@@ -1184,26 +1205,26 @@
         <v>42</v>
       </c>
       <c r="D32" s="8"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="19"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+      <c r="A33" s="14">
         <v>43245</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="3">
         <v>3</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6">
+      <c r="D33" s="4"/>
+      <c r="E33" s="17">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="5">
+      <c r="A34" s="15"/>
+      <c r="B34" s="10">
         <v>0.5</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -1212,28 +1233,46 @@
       <c r="D34" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="6"/>
+      <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="10">
+        <v>3</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="E35" s="18"/>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="19"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
+      <c r="A37" s="28">
+        <v>43249</v>
+      </c>
+      <c r="B37" s="12">
+        <v>6</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="30">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
@@ -1418,10 +1457,7 @@
       <c r="E63" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A31:A32"/>
+  <mergeCells count="22">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E3"/>
     <mergeCell ref="E31:E32"/>
@@ -1439,6 +1475,11 @@
     <mergeCell ref="E10:E15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="E16:E18"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A31:A32"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>

--- a/Documentation/journal de travail.xlsx
+++ b/Documentation/journal de travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Je n'ai pas encore réussi à faire marcher la librairie en local, entre l'environnement anaconda, les guides qui ne sont plus à jour, et probablement PyCharm qui vient mettre son grain de sel</t>
+  </si>
+  <si>
+    <t>Implémentation d'un aglorithme de deep-learning</t>
   </si>
 </sst>
 </file>
@@ -449,48 +452,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -499,6 +460,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,8 +788,8 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,29 +803,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="18"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -842,7 +845,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="28">
         <v>43228.05</v>
       </c>
       <c r="B5" s="3">
@@ -852,12 +855,12 @@
         <v>4</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="17">
+      <c r="E5" s="26">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -867,10 +870,10 @@
       <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="5">
         <v>0.5</v>
       </c>
@@ -880,10 +883,10 @@
       <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="18"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="5">
         <v>0.5</v>
       </c>
@@ -891,10 +894,10 @@
         <v>9</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="18"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="7">
         <v>2</v>
       </c>
@@ -902,10 +905,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="19"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="28">
         <v>43229</v>
       </c>
       <c r="B10" s="3">
@@ -915,12 +918,12 @@
         <v>11</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="17">
+      <c r="E10" s="26">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="5">
         <v>2</v>
       </c>
@@ -928,10 +931,10 @@
         <v>12</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="18"/>
+      <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="5">
         <v>0.75</v>
       </c>
@@ -941,10 +944,10 @@
       <c r="D12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="18"/>
+      <c r="E12" s="25"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="5">
         <v>2</v>
       </c>
@@ -952,10 +955,10 @@
         <v>15</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="18"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="5">
         <v>1.1499999999999999</v>
       </c>
@@ -963,10 +966,10 @@
         <v>16</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="18"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="7">
         <v>0.5</v>
       </c>
@@ -974,10 +977,10 @@
         <v>17</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="19"/>
+      <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="28" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="3">
@@ -987,12 +990,12 @@
         <v>18</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="17">
+      <c r="E16" s="26">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="5">
         <v>2</v>
       </c>
@@ -1000,10 +1003,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="18"/>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="7">
         <v>2</v>
       </c>
@@ -1011,10 +1014,10 @@
         <v>20</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="19"/>
+      <c r="E18" s="27"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+      <c r="A19" s="28">
         <v>43236</v>
       </c>
       <c r="B19" s="3">
@@ -1024,12 +1027,12 @@
         <v>21</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="17">
+      <c r="E19" s="26">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="5">
         <v>3</v>
       </c>
@@ -1039,10 +1042,10 @@
       <c r="D20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="18"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="5">
         <v>2.5</v>
       </c>
@@ -1050,10 +1053,10 @@
         <v>25</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="18"/>
+      <c r="E21" s="25"/>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="7">
         <v>3</v>
       </c>
@@ -1063,10 +1066,10 @@
       <c r="D22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="19"/>
+      <c r="E22" s="27"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
+      <c r="A23" s="28">
         <v>43237</v>
       </c>
       <c r="B23" s="3">
@@ -1078,12 +1081,12 @@
       <c r="D23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="26">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="7">
         <v>7</v>
       </c>
@@ -1093,10 +1096,10 @@
       <c r="D24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="19"/>
+      <c r="E24" s="27"/>
     </row>
     <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+      <c r="A25" s="28">
         <v>43238</v>
       </c>
       <c r="B25" s="3">
@@ -1108,12 +1111,12 @@
       <c r="D25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="26">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="7">
         <v>4</v>
       </c>
@@ -1121,10 +1124,10 @@
         <v>34</v>
       </c>
       <c r="D26" s="8"/>
-      <c r="E26" s="19"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="14">
+      <c r="A27" s="28">
         <v>43242</v>
       </c>
       <c r="B27" s="3">
@@ -1134,12 +1137,12 @@
         <v>35</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="17">
+      <c r="E27" s="26">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="5">
         <v>1.5</v>
       </c>
@@ -1147,10 +1150,10 @@
         <v>16</v>
       </c>
       <c r="D28" s="6"/>
-      <c r="E28" s="18"/>
+      <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
+      <c r="A29" s="28">
         <v>43243</v>
       </c>
       <c r="B29" s="3">
@@ -1162,12 +1165,12 @@
       <c r="D29" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="26">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="7">
         <v>4</v>
       </c>
@@ -1177,10 +1180,10 @@
       <c r="D30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="19"/>
+      <c r="E30" s="27"/>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
+      <c r="A31" s="28">
         <v>43244</v>
       </c>
       <c r="B31" s="3">
@@ -1192,12 +1195,12 @@
       <c r="D31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="26">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="7">
         <v>4</v>
       </c>
@@ -1205,10 +1208,10 @@
         <v>42</v>
       </c>
       <c r="D32" s="8"/>
-      <c r="E32" s="19"/>
+      <c r="E32" s="27"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
+      <c r="A33" s="28">
         <v>43245</v>
       </c>
       <c r="B33" s="3">
@@ -1218,12 +1221,12 @@
         <v>45</v>
       </c>
       <c r="D33" s="4"/>
-      <c r="E33" s="17">
+      <c r="E33" s="26">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="10">
         <v>0.5</v>
       </c>
@@ -1233,10 +1236,10 @@
       <c r="D34" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="18"/>
+      <c r="E34" s="25"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="10">
         <v>3</v>
       </c>
@@ -1244,10 +1247,10 @@
         <v>48</v>
       </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="18"/>
+      <c r="E35" s="25"/>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="7">
         <v>0.5</v>
       </c>
@@ -1257,36 +1260,52 @@
       <c r="D36" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="19"/>
+      <c r="E36" s="27"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="28">
+      <c r="A37" s="14">
         <v>43249</v>
       </c>
       <c r="B37" s="12">
         <v>6</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="30">
+      <c r="D37" s="15"/>
+      <c r="E37" s="16">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="A38" s="14">
+        <v>43250</v>
+      </c>
+      <c r="B38" s="12">
+        <v>9</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="16">
+        <v>9</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="A39" s="14">
+        <v>43251</v>
+      </c>
+      <c r="B39" s="12">
+        <v>9</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="16">
+        <v>9</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
@@ -1458,6 +1477,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A31:A32"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E3"/>
     <mergeCell ref="E31:E32"/>
@@ -1474,12 +1499,6 @@
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="E10:E15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A31:A32"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>

--- a/Documentation/journal de travail.xlsx
+++ b/Documentation/journal de travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>Implémentation d'un aglorithme de deep-learning</t>
+  </si>
+  <si>
+    <t>Implémentation d'une nouvelle fenêtre avec boutons pour gérer la partie machine learning graphiquement</t>
+  </si>
+  <si>
+    <t>Implémentation d'un système de création de dataset avec enregistrement des labels dans un fichier csv</t>
   </si>
 </sst>
 </file>
@@ -461,6 +467,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -483,24 +507,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -789,7 +795,7 @@
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:E39"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,29 +809,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -845,7 +851,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+      <c r="A5" s="20">
         <v>43228.05</v>
       </c>
       <c r="B5" s="3">
@@ -855,12 +861,12 @@
         <v>4</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="26">
+      <c r="E5" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -870,10 +876,10 @@
       <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="5">
         <v>0.5</v>
       </c>
@@ -883,10 +889,10 @@
       <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="5">
         <v>0.5</v>
       </c>
@@ -894,10 +900,10 @@
         <v>9</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="25"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="7">
         <v>2</v>
       </c>
@@ -905,10 +911,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="27"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
+      <c r="A10" s="20">
         <v>43229</v>
       </c>
       <c r="B10" s="3">
@@ -918,12 +924,12 @@
         <v>11</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="26">
+      <c r="E10" s="17">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="5">
         <v>2</v>
       </c>
@@ -931,10 +937,10 @@
         <v>12</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="25"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="5">
         <v>0.75</v>
       </c>
@@ -944,10 +950,10 @@
       <c r="D12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="25"/>
+      <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="5">
         <v>2</v>
       </c>
@@ -955,10 +961,10 @@
         <v>15</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="25"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="5">
         <v>1.1499999999999999</v>
       </c>
@@ -966,10 +972,10 @@
         <v>16</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="25"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="7">
         <v>0.5</v>
       </c>
@@ -977,10 +983,10 @@
         <v>17</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="27"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="3">
@@ -990,12 +996,12 @@
         <v>18</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="26">
+      <c r="E16" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="5">
         <v>2</v>
       </c>
@@ -1003,10 +1009,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="25"/>
+      <c r="E17" s="18"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="7">
         <v>2</v>
       </c>
@@ -1014,10 +1020,10 @@
         <v>20</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="27"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
+      <c r="A19" s="20">
         <v>43236</v>
       </c>
       <c r="B19" s="3">
@@ -1027,12 +1033,12 @@
         <v>21</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="26">
+      <c r="E19" s="17">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="5">
         <v>3</v>
       </c>
@@ -1042,10 +1048,10 @@
       <c r="D20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="25"/>
+      <c r="E20" s="18"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="5">
         <v>2.5</v>
       </c>
@@ -1053,10 +1059,10 @@
         <v>25</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="25"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="7">
         <v>3</v>
       </c>
@@ -1066,10 +1072,10 @@
       <c r="D22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="27"/>
+      <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="28">
+      <c r="A23" s="20">
         <v>43237</v>
       </c>
       <c r="B23" s="3">
@@ -1081,12 +1087,12 @@
       <c r="D23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="17">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="7">
         <v>7</v>
       </c>
@@ -1096,10 +1102,10 @@
       <c r="D24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="27"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
+      <c r="A25" s="20">
         <v>43238</v>
       </c>
       <c r="B25" s="3">
@@ -1111,12 +1117,12 @@
       <c r="D25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="17">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="7">
         <v>4</v>
       </c>
@@ -1124,10 +1130,10 @@
         <v>34</v>
       </c>
       <c r="D26" s="8"/>
-      <c r="E26" s="27"/>
+      <c r="E26" s="19"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="28">
+      <c r="A27" s="20">
         <v>43242</v>
       </c>
       <c r="B27" s="3">
@@ -1137,12 +1143,12 @@
         <v>35</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="26">
+      <c r="E27" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="5">
         <v>1.5</v>
       </c>
@@ -1150,10 +1156,10 @@
         <v>16</v>
       </c>
       <c r="D28" s="6"/>
-      <c r="E28" s="25"/>
+      <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="28">
+      <c r="A29" s="20">
         <v>43243</v>
       </c>
       <c r="B29" s="3">
@@ -1165,12 +1171,12 @@
       <c r="D29" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="17">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="7">
         <v>4</v>
       </c>
@@ -1180,10 +1186,10 @@
       <c r="D30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="27"/>
+      <c r="E30" s="19"/>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="28">
+      <c r="A31" s="20">
         <v>43244</v>
       </c>
       <c r="B31" s="3">
@@ -1195,12 +1201,12 @@
       <c r="D31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="17">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="7">
         <v>4</v>
       </c>
@@ -1208,10 +1214,10 @@
         <v>42</v>
       </c>
       <c r="D32" s="8"/>
-      <c r="E32" s="27"/>
+      <c r="E32" s="19"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="28">
+      <c r="A33" s="20">
         <v>43245</v>
       </c>
       <c r="B33" s="3">
@@ -1221,12 +1227,12 @@
         <v>45</v>
       </c>
       <c r="D33" s="4"/>
-      <c r="E33" s="26">
+      <c r="E33" s="17">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="10">
         <v>0.5</v>
       </c>
@@ -1236,10 +1242,10 @@
       <c r="D34" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="25"/>
+      <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="10">
         <v>3</v>
       </c>
@@ -1247,10 +1253,10 @@
         <v>48</v>
       </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="25"/>
+      <c r="E35" s="18"/>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="7">
         <v>0.5</v>
       </c>
@@ -1260,7 +1266,7 @@
       <c r="D36" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="27"/>
+      <c r="E36" s="19"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
@@ -1307,19 +1313,31 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="20">
+        <v>43252</v>
+      </c>
+      <c r="B40" s="3">
+        <v>4</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
+      <c r="B41" s="7">
+        <v>3</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="19"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
@@ -1476,13 +1494,9 @@
       <c r="E63" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A31:A32"/>
+  <mergeCells count="24">
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="E40:E41"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E3"/>
     <mergeCell ref="E31:E32"/>
@@ -1499,6 +1513,12 @@
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="E10:E15"/>
     <mergeCell ref="A16:A18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A31:A32"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>

--- a/Documentation/journal de travail.xlsx
+++ b/Documentation/journal de travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -186,6 +186,18 @@
   </si>
   <si>
     <t>Implémentation d'un système de création de dataset avec enregistrement des labels dans un fichier csv</t>
+  </si>
+  <si>
+    <t>Modification de l'interface</t>
+  </si>
+  <si>
+    <t>L'interface donne maintenant (en temps réel) la largeur et la hauteur de la selectionbox, et les labels deviennent verts quand les proportions de l'échantillon sélectionné permettent d'enregistrer celui-ci sans (trop) le déformer. J'ai aussi commencé à développer un système permettant à l'utilisateur de lire les caractères, et enregistrer les valeurs lues dans un fichier csv, permettant ainsi de faire des paires échantillon/label, qui serviront ensuite à l'entraînement de réseau.</t>
+  </si>
+  <si>
+    <t>Développement d'un système d'importation de datasets</t>
+  </si>
+  <si>
+    <t>L'application est désormais capable d'importer un dataset composé d'un dossier rempli d'images, et d'un fichier csv</t>
   </si>
 </sst>
 </file>
@@ -794,8 +806,8 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,18 +1351,36 @@
       <c r="D41" s="8"/>
       <c r="E41" s="19"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+    <row r="42" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <v>43256</v>
+      </c>
+      <c r="B42" s="12">
+        <v>6</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>43257</v>
+      </c>
+      <c r="B43" s="5">
+        <v>2</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="E43" s="6"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
